--- a/$MRDB.xlsx
+++ b/$MRDB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52D9CC8-81BD-4DFC-99AD-EA7E805070F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5EFD35C-4ECD-5240-A46F-EEDC5C7D514C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{DC0BB421-27B4-4714-8953-7404B140A86A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18900" xr2:uid="{DC0BB421-27B4-4714-8953-7404B140A86A}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,22 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="102">
   <si>
     <t>$MRDB</t>
   </si>
@@ -110,16 +120,239 @@
   </si>
   <si>
     <t>Redwood City, CA</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>IR</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Q321</t>
+  </si>
+  <si>
+    <t>Q421</t>
+  </si>
+  <si>
+    <t>Q122</t>
+  </si>
+  <si>
+    <t>Q222</t>
+  </si>
+  <si>
+    <t>Q322</t>
+  </si>
+  <si>
+    <t>Q422</t>
+  </si>
+  <si>
+    <t>Subscription Revenue</t>
+  </si>
+  <si>
+    <t>Services Revenue</t>
+  </si>
+  <si>
+    <t>Subscription COGS</t>
+  </si>
+  <si>
+    <t>Services COGS</t>
+  </si>
+  <si>
+    <t>COGS</t>
+  </si>
+  <si>
+    <t>Gross Profit</t>
+  </si>
+  <si>
+    <t>R&amp;D</t>
+  </si>
+  <si>
+    <t>S&amp;M</t>
+  </si>
+  <si>
+    <t>G&amp;A</t>
+  </si>
+  <si>
+    <t>Operating Expenses</t>
+  </si>
+  <si>
+    <t>Operating Income</t>
+  </si>
+  <si>
+    <t>Other Income</t>
+  </si>
+  <si>
+    <t>Interest Expense</t>
+  </si>
+  <si>
+    <t>Change in Warrant Liabilities</t>
+  </si>
+  <si>
+    <t>Pretax Income</t>
+  </si>
+  <si>
+    <t>Income Taxes</t>
+  </si>
+  <si>
+    <t>Net Income</t>
+  </si>
+  <si>
+    <t>EPS</t>
+  </si>
+  <si>
+    <t>Revenue Y/Y</t>
+  </si>
+  <si>
+    <t>Revenue Q/Q</t>
+  </si>
+  <si>
+    <t>Gross Margin</t>
+  </si>
+  <si>
+    <t>Operating Margin</t>
+  </si>
+  <si>
+    <t>Net Margin</t>
+  </si>
+  <si>
+    <t>Tax Rate</t>
+  </si>
+  <si>
+    <t>Balance Sheet</t>
+  </si>
+  <si>
+    <t>Short Term Investments</t>
+  </si>
+  <si>
+    <t>A/R</t>
+  </si>
+  <si>
+    <t>Prepaids &amp; OCA</t>
+  </si>
+  <si>
+    <t>TCA</t>
+  </si>
+  <si>
+    <t>PP&amp;E</t>
+  </si>
+  <si>
+    <t>Goodwill+Intangibles</t>
+  </si>
+  <si>
+    <t>Operating Lease ROU</t>
+  </si>
+  <si>
+    <t>Other NCA</t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>A/P</t>
+  </si>
+  <si>
+    <t>Accrued Expenses</t>
+  </si>
+  <si>
+    <t>Operating Lease Liabilities</t>
+  </si>
+  <si>
+    <t>Long-Term Debt (Current)</t>
+  </si>
+  <si>
+    <t>Deferred Revenue</t>
+  </si>
+  <si>
+    <t>TCL</t>
+  </si>
+  <si>
+    <t>Long-Term Debt (Net)</t>
+  </si>
+  <si>
+    <t>Warrant Liabilities</t>
+  </si>
+  <si>
+    <t>Liabilities</t>
+  </si>
+  <si>
+    <t>S/E</t>
+  </si>
+  <si>
+    <t>S/E+L</t>
+  </si>
+  <si>
+    <t>Book Value</t>
+  </si>
+  <si>
+    <t>Book Value per Share</t>
+  </si>
+  <si>
+    <t>FY21</t>
+  </si>
+  <si>
+    <t>FY22</t>
+  </si>
+  <si>
+    <t>FY23</t>
+  </si>
+  <si>
+    <t>FY24</t>
+  </si>
+  <si>
+    <t>FY25</t>
+  </si>
+  <si>
+    <t>FY26</t>
+  </si>
+  <si>
+    <t>FY27</t>
+  </si>
+  <si>
+    <t>FY28</t>
+  </si>
+  <si>
+    <t>FY29</t>
+  </si>
+  <si>
+    <t>FY30</t>
+  </si>
+  <si>
+    <t>FY31</t>
+  </si>
+  <si>
+    <t>FY32</t>
+  </si>
+  <si>
+    <t>FY33</t>
+  </si>
+  <si>
+    <t>Q123</t>
+  </si>
+  <si>
+    <t>Q223</t>
+  </si>
+  <si>
+    <t>Q323</t>
+  </si>
+  <si>
+    <t>Key Metrics/Ratios</t>
+  </si>
+  <si>
+    <t>P/B</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="#,##0.0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    <numFmt numFmtId="168" formatCode="0.0\x"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,6 +369,49 @@
     <font>
       <b/>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -256,13 +532,53 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -272,48 +588,52 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="17" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -389,7 +709,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -677,7 +997,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -685,549 +1005,1378 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E0B3710-EF0D-4AD1-8E45-9F1CD0E7FB3F}">
-  <dimension ref="A2:R29"/>
+  <dimension ref="A2:R34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="C34" sqref="C34:D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B5" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-      <c r="G5" s="3" t="s">
+      <c r="C5" s="25"/>
+      <c r="D5" s="26"/>
+      <c r="G5" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="5"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B6" s="6" t="s">
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="26"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="1">
         <v>4.0199999999999996</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="16"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B7" s="6" t="s">
+      <c r="D6" s="4"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="11"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="11">
-        <v>67.489999999999995</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="16"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B8" s="6" t="s">
+      <c r="C7" s="7">
+        <f>'Financial Model'!J23</f>
+        <v>58.801357000000003</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="11"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="7">
         <f>C6*C7</f>
-        <v>271.30979999999994</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="16"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B9" s="6" t="s">
+        <v>236.38145513999999</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="11"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="8"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="16"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B10" s="6" t="s">
+      <c r="C9" s="7">
+        <f>'Financial Model'!J65</f>
+        <v>30.754999999999999</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="11"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="8"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="16"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B11" s="6" t="s">
+      <c r="C10" s="7">
+        <f>'Financial Model'!J66</f>
+        <v>14.744</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="11"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="7">
         <f>C9-C10</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="16"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B12" s="9" t="s">
+        <v>16.010999999999999</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="11"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="8">
         <f>C8-C11</f>
-        <v>271.30979999999994</v>
-      </c>
-      <c r="D12" s="10"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="16"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="G13" s="14"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="16"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="G14" s="14"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="16"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B15" s="3" t="s">
+        <v>220.37045513999999</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="11"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="G13" s="9"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="11"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="G14" s="9"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="11"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B15" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="5"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="16"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="27" t="s">
+      <c r="C15" s="25"/>
+      <c r="D15" s="26"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="11"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A16" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="22"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="16"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17" s="27" t="s">
+      <c r="D16" s="21"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="11"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A17" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="22"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="16"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18" s="27" t="s">
+      <c r="D17" s="21"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="11"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A18" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="22"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="16"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B19" s="23" t="s">
+      <c r="D18" s="21"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="11"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B19" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="25"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="16"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="G20" s="14"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="16"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="G21" s="14"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="16"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B22" s="3" t="s">
+      <c r="D19" s="23"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="11"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="G20" s="9"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="11"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="G21" s="9"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="11"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B22" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="5"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="16"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B23" s="26" t="s">
+      <c r="C22" s="25"/>
+      <c r="D22" s="26"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="11"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B23" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="22"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="16"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B24" s="26" t="s">
+      <c r="D23" s="21"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="11"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B24" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="20">
         <v>2010</v>
       </c>
-      <c r="D24" s="22"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="16"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B25" s="26" t="s">
+      <c r="D24" s="21"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="11"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B25" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="21">
+      <c r="C25" s="20">
         <v>2022</v>
       </c>
-      <c r="D25" s="22"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="16"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B26" s="26"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="22"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="16"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B27" s="26"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="22"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="15"/>
-      <c r="R27" s="16"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B28" s="26"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="22"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="16"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B29" s="13"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="18"/>
-      <c r="O29" s="18"/>
-      <c r="P29" s="18"/>
-      <c r="Q29" s="18"/>
-      <c r="R29" s="19"/>
+      <c r="D25" s="21"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="11"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B26" s="18"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="21"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="11"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B27" s="18"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="21"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="11"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B28" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="43">
+        <v>42705</v>
+      </c>
+      <c r="G28" s="9"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="11"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B29" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="28"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="14"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B33" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" s="25"/>
+      <c r="D33" s="26"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B34" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" s="44">
+        <f>C6/'Financial Model'!J63</f>
+        <v>26.782399177430296</v>
+      </c>
+      <c r="D34" s="45"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="16">
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="G5:R5"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
     <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="G5:R5"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C29:D29" r:id="rId1" display="Link" xr:uid="{5D0A9762-A75A-8045-B126-8ECAA70A3451}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B827E334-5CAC-4383-B3FB-74EC278BFB5B}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AC67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I20" sqref="I20"/>
+      <selection pane="bottomRight" activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="4.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.1640625" style="1"/>
+    <col min="6" max="6" width="9.1640625" style="7"/>
+    <col min="7" max="9" width="9.1640625" style="1"/>
+    <col min="10" max="10" width="9.1640625" style="7"/>
+    <col min="11" max="16384" width="9.1640625" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:29" s="29" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F1" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="M1" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="N1" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q1" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="R1" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="S1" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="T1" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="U1" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="V1" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="W1" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="X1" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y1" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z1" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA1" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB1" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC1" s="29" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="39"/>
+      <c r="F2" s="41">
+        <v>44469</v>
+      </c>
+      <c r="J2" s="41">
+        <v>44834</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="39"/>
+      <c r="J3" s="42">
+        <v>42705</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" s="30" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="32">
+        <v>31.806000000000001</v>
+      </c>
+      <c r="J4" s="32">
+        <v>38.451000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" s="30" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="32">
+        <v>4.2222</v>
+      </c>
+      <c r="J5" s="32">
+        <v>5.234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="33">
+        <f>F4+F5</f>
+        <v>36.028199999999998</v>
+      </c>
+      <c r="J6" s="33">
+        <f>J4+J5</f>
+        <v>43.685000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" s="30" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="32">
+        <v>5.2919999999999998</v>
+      </c>
+      <c r="J7" s="32">
+        <v>6.5949999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" s="30" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="32">
+        <v>4.3339999999999996</v>
+      </c>
+      <c r="J8" s="32">
+        <v>6.9660000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="B9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="7">
+        <f>F7+F8</f>
+        <v>9.6259999999999994</v>
+      </c>
+      <c r="J9" s="7">
+        <f>J7+J8</f>
+        <v>13.561</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="33">
+        <f>F6-F9</f>
+        <v>26.402200000000001</v>
+      </c>
+      <c r="J10" s="33">
+        <f>J6-J9</f>
+        <v>30.124000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="B11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="7">
+        <v>24.827999999999999</v>
+      </c>
+      <c r="J11" s="7">
+        <v>35.415999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="B12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="7">
+        <v>19.065000000000001</v>
+      </c>
+      <c r="J12" s="7">
+        <v>27.937999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="B13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="7">
+        <v>8.4849999999999994</v>
+      </c>
+      <c r="J13" s="7">
+        <v>15.161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="B14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="7">
+        <f>SUM(F11:F13)</f>
+        <v>52.378</v>
+      </c>
+      <c r="J14" s="7">
+        <f>SUM(J11:J13)</f>
+        <v>78.515000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="33">
+        <f>F10-F14</f>
+        <v>-25.9758</v>
+      </c>
+      <c r="J15" s="33">
+        <f>J10-J14</f>
+        <v>-48.390999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="B16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="7">
+        <v>2.7730000000000001</v>
+      </c>
+      <c r="J16" s="7">
+        <v>1.6080000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="7">
+        <v>3.6259999999999999</v>
+      </c>
+      <c r="J17" s="7">
+        <v>-5.7119999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="7">
+        <v>-0.23499999999999999</v>
+      </c>
+      <c r="J18" s="7">
+        <v>7.141</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="7">
+        <f>F15-F16+F17+F18</f>
+        <v>-25.357799999999997</v>
+      </c>
+      <c r="J19" s="7">
+        <f>J15-J16+J17+J18</f>
+        <v>-48.57</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="7">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="J20" s="7">
+        <v>8.1000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="33">
+        <f>F19-F20</f>
+        <v>-25.441799999999997</v>
+      </c>
+      <c r="J21" s="33">
+        <f>J19-J20</f>
+        <v>-48.651000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" s="35" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" s="35">
+        <f>F21/F23</f>
+        <v>-0.50517972135233469</v>
+      </c>
+      <c r="J22" s="35">
+        <f>J21/J23</f>
+        <v>-0.82737886474286637</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="7">
+        <v>50.361879000000002</v>
+      </c>
+      <c r="J23" s="7">
+        <v>58.801357000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" s="33"/>
+      <c r="J25" s="36">
+        <f>J6/F6-1</f>
+        <v>0.21252241299870667</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B26" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" s="37" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" s="37">
+        <f>F10/F6</f>
+        <v>0.73282040179637065</v>
+      </c>
+      <c r="J28" s="37">
+        <f>J10/J6</f>
+        <v>0.68957308000457829</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" s="37" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" s="37">
+        <f>F15/F6</f>
+        <v>-0.72098522823788036</v>
+      </c>
+      <c r="J29" s="37">
+        <f>J15/J6</f>
+        <v>-1.1077257639922169</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" s="37" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" s="37">
+        <f>F21/F6</f>
+        <v>-0.70616350525421745</v>
+      </c>
+      <c r="J30" s="37">
+        <f>J21/J6</f>
+        <v>-1.1136774636602953</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" s="37" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" s="37">
+        <f>F20/F19</f>
+        <v>-3.3125902089297973E-3</v>
+      </c>
+      <c r="J31" s="37">
+        <f>J20/J19</f>
+        <v>-1.6676961087090797E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B35" s="38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36" s="33">
+        <v>6.907</v>
+      </c>
+      <c r="J36" s="33">
+        <v>4.7560000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F37" s="33">
+        <v>0</v>
+      </c>
+      <c r="J37" s="33">
+        <v>25.998999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B38" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F38" s="7">
+        <v>11.692</v>
+      </c>
+      <c r="J38" s="7">
+        <v>12.154</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B39" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F39" s="7">
+        <v>4.6760000000000002</v>
+      </c>
+      <c r="J39" s="7">
+        <v>15.805999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B40" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F40" s="7">
+        <f>SUM(F36:F39)</f>
+        <v>23.274999999999999</v>
+      </c>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7">
+        <f t="shared" ref="G40:J40" si="0">SUM(J36:J39)</f>
+        <v>58.714999999999996</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B41" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F41" s="7">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7">
+        <v>0.70799999999999996</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B42" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F42" s="7">
+        <v>4.649</v>
+      </c>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7">
+        <f>7.535+1.12</f>
+        <v>8.6550000000000011</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B43" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F43" s="7">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B44" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F44" s="7">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7">
+        <v>1.006</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B45" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F45" s="7">
+        <f>F40+SUM(F41:F44)</f>
+        <v>30.027999999999999</v>
+      </c>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7">
+        <f t="shared" ref="G45:J45" si="1">J40+SUM(J41:J44)</f>
+        <v>69.974000000000004</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B47" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F47" s="7">
+        <v>1.9379999999999999</v>
+      </c>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7">
+        <v>3.2669999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B48" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F48" s="7">
+        <v>6.774</v>
+      </c>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7">
+        <v>8.9019999999999992</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B49" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F49" s="7">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7">
+        <v>0.496</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B50" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F50" s="33">
+        <v>11.723000000000001</v>
+      </c>
+      <c r="G50" s="33"/>
+      <c r="H50" s="33"/>
+      <c r="I50" s="33"/>
+      <c r="J50" s="33">
+        <v>0.122</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B51" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F51" s="7">
+        <v>25.091000000000001</v>
+      </c>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7">
+        <v>26.236000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B52" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F52" s="7">
+        <f>SUM(F47:F51)</f>
+        <v>46.183999999999997</v>
+      </c>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7">
+        <f t="shared" ref="G52:J52" si="2">SUM(J47:J51)</f>
+        <v>39.022999999999996</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B53" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F53" s="33">
+        <v>17.513000000000002</v>
+      </c>
+      <c r="G53" s="33"/>
+      <c r="H53" s="33"/>
+      <c r="I53" s="33"/>
+      <c r="J53" s="33">
+        <v>14.622</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B54" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F54" s="7">
+        <v>1.0349999999999999</v>
+      </c>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7">
+        <v>0.433</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B55" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F55" s="7">
+        <v>8.1180000000000003</v>
+      </c>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7">
+        <v>5.3209999999999997</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B56" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F56" s="7">
+        <v>5.3029999999999999</v>
+      </c>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7">
+        <v>1.7490000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B57" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F57" s="7">
+        <f>F52+SUM(F53:F56)</f>
+        <v>78.153000000000006</v>
+      </c>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7">
+        <f t="shared" ref="G57:J57" si="3">J52+SUM(J53:J56)</f>
+        <v>61.147999999999996</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B59" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F59" s="7">
+        <f>F45-F57</f>
+        <v>-48.125000000000007</v>
+      </c>
+      <c r="J59" s="7">
+        <f>J45-J57</f>
+        <v>8.8260000000000076</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B60" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F60" s="7">
+        <f>F59+F57</f>
+        <v>30.027999999999999</v>
+      </c>
+      <c r="J60" s="7">
+        <f>J59+J57</f>
+        <v>69.974000000000004</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B62" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F62" s="7">
+        <f>F45-F57</f>
+        <v>-48.125000000000007</v>
+      </c>
+      <c r="J62" s="7">
+        <f>J45-J57</f>
+        <v>8.8260000000000076</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B63" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F63" s="7">
+        <f>F62/F23</f>
+        <v>-0.95558388518426818</v>
+      </c>
+      <c r="J63" s="7">
+        <f>J62/J23</f>
+        <v>0.15009857680665442</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F65" s="7">
+        <f>F36+F37</f>
+        <v>6.907</v>
+      </c>
+      <c r="J65" s="7">
+        <f>J36+J37</f>
+        <v>30.754999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B66" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F66" s="7">
+        <f>F50+F53</f>
+        <v>29.236000000000004</v>
+      </c>
+      <c r="J66" s="7">
+        <f>J50+J53</f>
+        <v>14.744</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B67" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67" s="7">
+        <f>F65-F66</f>
+        <v>-22.329000000000004</v>
+      </c>
+      <c r="J67" s="7">
+        <f>J65-J66</f>
+        <v>16.010999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="J1" r:id="rId1" xr:uid="{37C18218-3CB9-DD41-87D5-CBAC90EBF07E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/$MRDB.xlsx
+++ b/$MRDB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5EFD35C-4ECD-5240-A46F-EEDC5C7D514C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EBC9A0A-2BBA-4500-A658-C4858D59C99E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18900" xr2:uid="{DC0BB421-27B4-4714-8953-7404B140A86A}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{DC0BB421-27B4-4714-8953-7404B140A86A}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -21,16 +21,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -350,7 +340,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    <numFmt numFmtId="168" formatCode="0.0\x"/>
+    <numFmt numFmtId="165" formatCode="0.0\x"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -541,9 +531,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -567,33 +555,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -625,11 +586,44 @@
     <xf numFmtId="17" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -709,7 +703,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -997,7 +991,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1007,551 +1001,558 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E0B3710-EF0D-4AD1-8E45-9F1CD0E7FB3F}">
   <dimension ref="A2:R34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34:D34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B5" s="24" t="s">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B5" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="26"/>
-      <c r="G5" s="24" t="s">
+      <c r="C5" s="38"/>
+      <c r="D5" s="39"/>
+      <c r="G5" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="26"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="39"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="1">
         <v>4.0199999999999996</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="11"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="D6" s="44"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="9"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="5">
         <f>'Financial Model'!J23</f>
         <v>58.801357000000003</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="11"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="D7" s="44" t="str">
+        <f>$C$28</f>
+        <v>Q322</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="9"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="5">
         <f>C6*C7</f>
         <v>236.38145513999999</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="11"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="D8" s="44"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="9"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="5">
         <f>'Financial Model'!J65</f>
         <v>30.754999999999999</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="11"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="D9" s="44" t="str">
+        <f t="shared" ref="D9:D11" si="0">$C$28</f>
+        <v>Q322</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="9"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="5">
         <f>'Financial Model'!J66</f>
         <v>14.744</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="11"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="D10" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>Q322</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="9"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="5">
         <f>C9-C10</f>
         <v>16.010999999999999</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="11"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B12" s="5" t="s">
+      <c r="D11" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>Q322</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="9"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="6">
         <f>C8-C11</f>
         <v>220.37045513999999</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="11"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="G13" s="9"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="11"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="G14" s="9"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="11"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B15" s="24" t="s">
+      <c r="D12" s="45"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="9"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="9"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="9"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B15" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="26"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="11"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A16" s="19" t="s">
+      <c r="C15" s="38"/>
+      <c r="D15" s="39"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="9"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="21"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="11"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A17" s="19" t="s">
+      <c r="D16" s="34"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="9"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="21"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="11"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A18" s="19" t="s">
+      <c r="D17" s="34"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="9"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="21"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="11"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B19" s="17" t="s">
+      <c r="D18" s="34"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="9"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B19" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="23"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="11"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="G20" s="9"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="11"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="G21" s="9"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="11"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B22" s="24" t="s">
+      <c r="D19" s="43"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="9"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="G20" s="7"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="9"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="9"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B22" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="26"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="11"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B23" s="18" t="s">
+      <c r="C22" s="38"/>
+      <c r="D22" s="39"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="9"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B23" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="21"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="11"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B24" s="18" t="s">
+      <c r="D23" s="34"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="9"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B24" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="20">
+      <c r="C24" s="33">
         <v>2010</v>
       </c>
-      <c r="D24" s="21"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="11"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B25" s="18" t="s">
+      <c r="D24" s="34"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="9"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B25" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="20">
+      <c r="C25" s="33">
         <v>2022</v>
       </c>
-      <c r="D25" s="21"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="11"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B26" s="18"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="11"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B27" s="18"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="21"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="11"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B28" s="18" t="s">
+      <c r="D25" s="34"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="9"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B26" s="16"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="34"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="9"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B27" s="16"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="34"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="9"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B28" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="43">
+      <c r="D28" s="32">
         <v>42705</v>
       </c>
-      <c r="G28" s="9"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="11"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B29" s="18" t="s">
+      <c r="G28" s="7"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="9"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B29" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C29" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="28"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="14"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B33" s="24" t="s">
+      <c r="D29" s="36"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="12"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B33" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="C33" s="25"/>
-      <c r="D33" s="26"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B34" s="18" t="s">
+      <c r="C33" s="38"/>
+      <c r="D33" s="39"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B34" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="C34" s="44">
+      <c r="C34" s="40">
         <f>C6/'Financial Model'!J63</f>
         <v>26.782399177430296</v>
       </c>
-      <c r="D34" s="45"/>
+      <c r="D34" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="B5:D5"/>
     <mergeCell ref="G5:R5"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="C16:D16"/>
@@ -1563,6 +1564,11 @@
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="B5:D5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C29:D29" r:id="rId1" display="Link" xr:uid="{5D0A9762-A75A-8045-B126-8ECAA70A3451}"/>
@@ -1576,798 +1582,798 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B827E334-5CAC-4383-B3FB-74EC278BFB5B}">
   <dimension ref="A1:AC67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F75" sqref="F75"/>
+      <selection pane="bottomRight" activeCell="P27" sqref="P27:T36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="9.1640625" style="1"/>
-    <col min="6" max="6" width="9.1640625" style="7"/>
-    <col min="7" max="9" width="9.1640625" style="1"/>
-    <col min="10" max="10" width="9.1640625" style="7"/>
-    <col min="11" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="4.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="9.140625" style="5"/>
+    <col min="7" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="9.140625" style="5"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="29" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F1" s="34" t="s">
+    <row r="1" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F1" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="K1" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="29" t="s">
+      <c r="L1" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="M1" s="29" t="s">
+      <c r="M1" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="N1" s="29" t="s">
+      <c r="N1" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="Q1" s="29" t="s">
+      <c r="Q1" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="R1" s="29" t="s">
+      <c r="R1" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="S1" s="29" t="s">
+      <c r="S1" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="T1" s="29" t="s">
+      <c r="T1" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="U1" s="29" t="s">
+      <c r="U1" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="V1" s="29" t="s">
+      <c r="V1" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="W1" s="29" t="s">
+      <c r="W1" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="X1" s="29" t="s">
+      <c r="X1" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="Y1" s="29" t="s">
+      <c r="Y1" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="Z1" s="29" t="s">
+      <c r="Z1" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="AA1" s="29" t="s">
+      <c r="AA1" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="AB1" s="29" t="s">
+      <c r="AB1" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="AC1" s="29" t="s">
+      <c r="AC1" s="18" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="39"/>
-      <c r="F2" s="41">
+    <row r="2" spans="1:29" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="28"/>
+      <c r="F2" s="30">
         <v>44469</v>
       </c>
-      <c r="J2" s="41">
+      <c r="J2" s="30">
         <v>44834</v>
       </c>
     </row>
-    <row r="3" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="39"/>
-      <c r="J3" s="42">
+    <row r="3" spans="1:29" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="28"/>
+      <c r="J3" s="31">
         <v>42705</v>
       </c>
     </row>
-    <row r="4" spans="1:29" s="30" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="30" t="s">
+    <row r="4" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="32">
+      <c r="F4" s="21">
         <v>31.806000000000001</v>
       </c>
-      <c r="J4" s="32">
+      <c r="J4" s="21">
         <v>38.451000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:29" s="30" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="30" t="s">
+    <row r="5" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="32">
+      <c r="F5" s="21">
         <v>4.2222</v>
       </c>
-      <c r="J5" s="32">
+      <c r="J5" s="21">
         <v>5.234</v>
       </c>
     </row>
-    <row r="6" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="33">
+      <c r="F6" s="22">
         <f>F4+F5</f>
         <v>36.028199999999998</v>
       </c>
-      <c r="J6" s="33">
+      <c r="J6" s="22">
         <f>J4+J5</f>
         <v>43.685000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:29" s="30" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="30" t="s">
+    <row r="7" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="32">
+      <c r="F7" s="21">
         <v>5.2919999999999998</v>
       </c>
-      <c r="J7" s="32">
+      <c r="J7" s="21">
         <v>6.5949999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:29" s="30" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="30" t="s">
+    <row r="8" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="32">
+      <c r="F8" s="21">
         <v>4.3339999999999996</v>
       </c>
-      <c r="J8" s="32">
+      <c r="J8" s="21">
         <v>6.9660000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="5">
         <f>F7+F8</f>
         <v>9.6259999999999994</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="5">
         <f>J7+J8</f>
         <v>13.561</v>
       </c>
     </row>
-    <row r="10" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="33">
+      <c r="F10" s="22">
         <f>F6-F9</f>
         <v>26.402200000000001</v>
       </c>
-      <c r="J10" s="33">
+      <c r="J10" s="22">
         <f>J6-J9</f>
         <v>30.124000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="5">
         <v>24.827999999999999</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="5">
         <v>35.415999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="5">
         <v>19.065000000000001</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="5">
         <v>27.937999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="5">
         <v>8.4849999999999994</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="5">
         <v>15.161</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="5">
         <f>SUM(F11:F13)</f>
         <v>52.378</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="5">
         <f>SUM(J11:J13)</f>
         <v>78.515000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="33">
+      <c r="F15" s="22">
         <f>F10-F14</f>
         <v>-25.9758</v>
       </c>
-      <c r="J15" s="33">
+      <c r="J15" s="22">
         <f>J10-J14</f>
         <v>-48.390999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="5">
         <v>2.7730000000000001</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="5">
         <v>1.6080000000000001</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="5">
         <v>3.6259999999999999</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="5">
         <v>-5.7119999999999997</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="5">
         <v>-0.23499999999999999</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="5">
         <v>7.141</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="5">
         <f>F15-F16+F17+F18</f>
         <v>-25.357799999999997</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J19" s="5">
         <f>J15-J16+J17+J18</f>
         <v>-48.57</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="5">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J20" s="5">
         <v>8.1000000000000003E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F21" s="33">
+      <c r="F21" s="22">
         <f>F19-F20</f>
         <v>-25.441799999999997</v>
       </c>
-      <c r="J21" s="33">
+      <c r="J21" s="22">
         <f>J19-J20</f>
         <v>-48.651000000000003</v>
       </c>
     </row>
-    <row r="22" spans="2:10" s="35" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="35" t="s">
+    <row r="22" spans="2:10" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="F22" s="35">
+      <c r="F22" s="24">
         <f>F21/F23</f>
         <v>-0.50517972135233469</v>
       </c>
-      <c r="J22" s="35">
+      <c r="J22" s="24">
         <f>J21/J23</f>
         <v>-0.82737886474286637</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="5">
         <v>50.361879000000002</v>
       </c>
-      <c r="J23" s="7">
+      <c r="J23" s="5">
         <v>58.801357000000003</v>
       </c>
     </row>
-    <row r="25" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F25" s="33"/>
-      <c r="J25" s="36">
+      <c r="F25" s="22"/>
+      <c r="J25" s="25">
         <f>J6/F6-1</f>
         <v>0.21252241299870667</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="2:10" s="37" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="37" t="s">
+    <row r="28" spans="2:10" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="F28" s="37">
+      <c r="F28" s="26">
         <f>F10/F6</f>
         <v>0.73282040179637065</v>
       </c>
-      <c r="J28" s="37">
+      <c r="J28" s="26">
         <f>J10/J6</f>
         <v>0.68957308000457829</v>
       </c>
     </row>
-    <row r="29" spans="2:10" s="37" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="37" t="s">
+    <row r="29" spans="2:10" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="F29" s="37">
+      <c r="F29" s="26">
         <f>F15/F6</f>
         <v>-0.72098522823788036</v>
       </c>
-      <c r="J29" s="37">
+      <c r="J29" s="26">
         <f>J15/J6</f>
         <v>-1.1077257639922169</v>
       </c>
     </row>
-    <row r="30" spans="2:10" s="37" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="37" t="s">
+    <row r="30" spans="2:10" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="F30" s="37">
+      <c r="F30" s="26">
         <f>F21/F6</f>
         <v>-0.70616350525421745</v>
       </c>
-      <c r="J30" s="37">
+      <c r="J30" s="26">
         <f>J21/J6</f>
         <v>-1.1136774636602953</v>
       </c>
     </row>
-    <row r="31" spans="2:10" s="37" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="37" t="s">
+    <row r="31" spans="2:10" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="F31" s="37">
+      <c r="F31" s="26">
         <f>F20/F19</f>
         <v>-3.3125902089297973E-3</v>
       </c>
-      <c r="J31" s="37">
+      <c r="J31" s="26">
         <f>J20/J19</f>
         <v>-1.6676961087090797E-3</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B35" s="38" t="s">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B35" s="27" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F36" s="33">
+      <c r="F36" s="22">
         <v>6.907</v>
       </c>
-      <c r="J36" s="33">
+      <c r="J36" s="22">
         <v>4.7560000000000002</v>
       </c>
     </row>
-    <row r="37" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F37" s="33">
+      <c r="F37" s="22">
         <v>0</v>
       </c>
-      <c r="J37" s="33">
+      <c r="J37" s="22">
         <v>25.998999999999999</v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F38" s="5">
         <v>11.692</v>
       </c>
-      <c r="J38" s="7">
+      <c r="J38" s="5">
         <v>12.154</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F39" s="5">
         <v>4.6760000000000002</v>
       </c>
-      <c r="J39" s="7">
+      <c r="J39" s="5">
         <v>15.805999999999999</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F40" s="7">
+      <c r="F40" s="5">
         <f>SUM(F36:F39)</f>
         <v>23.274999999999999</v>
       </c>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7">
-        <f t="shared" ref="G40:J40" si="0">SUM(J36:J39)</f>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5">
+        <f t="shared" ref="J40" si="0">SUM(J36:J39)</f>
         <v>58.714999999999996</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F41" s="7">
+      <c r="F41" s="5">
         <v>0.92600000000000005</v>
       </c>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7">
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5">
         <v>0.70799999999999996</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F42" s="7">
+      <c r="F42" s="5">
         <v>4.649</v>
       </c>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7">
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5">
         <f>7.535+1.12</f>
         <v>8.6550000000000011</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F43" s="7">
+      <c r="F43" s="5">
         <v>0.70599999999999996</v>
       </c>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7">
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5">
         <v>0.89</v>
       </c>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F44" s="5">
         <v>0.47199999999999998</v>
       </c>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7">
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5">
         <v>1.006</v>
       </c>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F45" s="7">
+      <c r="F45" s="5">
         <f>F40+SUM(F41:F44)</f>
         <v>30.027999999999999</v>
       </c>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7">
-        <f t="shared" ref="G45:J45" si="1">J40+SUM(J41:J44)</f>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5">
+        <f t="shared" ref="J45" si="1">J40+SUM(J41:J44)</f>
         <v>69.974000000000004</v>
       </c>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F47" s="7">
+      <c r="F47" s="5">
         <v>1.9379999999999999</v>
       </c>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7">
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5">
         <v>3.2669999999999999</v>
       </c>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F48" s="7">
+      <c r="F48" s="5">
         <v>6.774</v>
       </c>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7">
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5">
         <v>8.9019999999999992</v>
       </c>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F49" s="7">
+      <c r="F49" s="5">
         <v>0.65800000000000003</v>
       </c>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7">
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5">
         <v>0.496</v>
       </c>
     </row>
-    <row r="50" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F50" s="33">
+      <c r="F50" s="22">
         <v>11.723000000000001</v>
       </c>
-      <c r="G50" s="33"/>
-      <c r="H50" s="33"/>
-      <c r="I50" s="33"/>
-      <c r="J50" s="33">
+      <c r="G50" s="22"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="22">
         <v>0.122</v>
       </c>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F51" s="7">
+      <c r="F51" s="5">
         <v>25.091000000000001</v>
       </c>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7">
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5">
         <v>26.236000000000001</v>
       </c>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F52" s="7">
+      <c r="F52" s="5">
         <f>SUM(F47:F51)</f>
         <v>46.183999999999997</v>
       </c>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7">
-        <f t="shared" ref="G52:J52" si="2">SUM(J47:J51)</f>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5">
+        <f t="shared" ref="J52" si="2">SUM(J47:J51)</f>
         <v>39.022999999999996</v>
       </c>
     </row>
-    <row r="53" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F53" s="33">
+      <c r="F53" s="22">
         <v>17.513000000000002</v>
       </c>
-      <c r="G53" s="33"/>
-      <c r="H53" s="33"/>
-      <c r="I53" s="33"/>
-      <c r="J53" s="33">
+      <c r="G53" s="22"/>
+      <c r="H53" s="22"/>
+      <c r="I53" s="22"/>
+      <c r="J53" s="22">
         <v>14.622</v>
       </c>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F54" s="7">
+      <c r="F54" s="5">
         <v>1.0349999999999999</v>
       </c>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="7">
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5">
         <v>0.433</v>
       </c>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F55" s="7">
+      <c r="F55" s="5">
         <v>8.1180000000000003</v>
       </c>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="7">
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5">
         <v>5.3209999999999997</v>
       </c>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F56" s="7">
+      <c r="F56" s="5">
         <v>5.3029999999999999</v>
       </c>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="7">
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5">
         <v>1.7490000000000001</v>
       </c>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F57" s="7">
+      <c r="F57" s="5">
         <f>F52+SUM(F53:F56)</f>
         <v>78.153000000000006</v>
       </c>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7">
-        <f t="shared" ref="G57:J57" si="3">J52+SUM(J53:J56)</f>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5">
+        <f t="shared" ref="J57" si="3">J52+SUM(J53:J56)</f>
         <v>61.147999999999996</v>
       </c>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F59" s="7">
+      <c r="F59" s="5">
         <f>F45-F57</f>
         <v>-48.125000000000007</v>
       </c>
-      <c r="J59" s="7">
+      <c r="J59" s="5">
         <f>J45-J57</f>
         <v>8.8260000000000076</v>
       </c>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F60" s="7">
+      <c r="F60" s="5">
         <f>F59+F57</f>
         <v>30.027999999999999</v>
       </c>
-      <c r="J60" s="7">
+      <c r="J60" s="5">
         <f>J59+J57</f>
         <v>69.974000000000004</v>
       </c>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F62" s="7">
+      <c r="F62" s="5">
         <f>F45-F57</f>
         <v>-48.125000000000007</v>
       </c>
-      <c r="J62" s="7">
+      <c r="J62" s="5">
         <f>J45-J57</f>
         <v>8.8260000000000076</v>
       </c>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F63" s="7">
+      <c r="F63" s="5">
         <f>F62/F23</f>
         <v>-0.95558388518426818</v>
       </c>
-      <c r="J63" s="7">
+      <c r="J63" s="5">
         <f>J62/J23</f>
         <v>0.15009857680665442</v>
       </c>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B65" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F65" s="7">
+      <c r="F65" s="5">
         <f>F36+F37</f>
         <v>6.907</v>
       </c>
-      <c r="J65" s="7">
+      <c r="J65" s="5">
         <f>J36+J37</f>
         <v>30.754999999999999</v>
       </c>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F66" s="7">
+      <c r="F66" s="5">
         <f>F50+F53</f>
         <v>29.236000000000004</v>
       </c>
-      <c r="J66" s="7">
+      <c r="J66" s="5">
         <f>J50+J53</f>
         <v>14.744</v>
       </c>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F67" s="7">
+      <c r="F67" s="5">
         <f>F65-F66</f>
         <v>-22.329000000000004</v>
       </c>
-      <c r="J67" s="7">
+      <c r="J67" s="5">
         <f>J65-J66</f>
         <v>16.010999999999999</v>
       </c>

--- a/$MRDB.xlsx
+++ b/$MRDB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EBC9A0A-2BBA-4500-A658-C4858D59C99E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11128263-3D91-434F-B126-00827CDABC58}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{DC0BB421-27B4-4714-8953-7404B140A86A}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" xr2:uid="{DC0BB421-27B4-4714-8953-7404B140A86A}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="103">
   <si>
     <t>$MRDB</t>
   </si>
@@ -332,6 +332,9 @@
   </si>
   <si>
     <t>P/B</t>
+  </si>
+  <si>
+    <t>Emply.</t>
   </si>
 </sst>
 </file>
@@ -526,7 +529,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -543,9 +546,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -586,25 +586,31 @@
     <xf numFmtId="17" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -613,17 +619,23 @@
     <xf numFmtId="165" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1001,8 +1013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E0B3710-EF0D-4AD1-8E45-9F1CD0E7FB3F}">
   <dimension ref="A2:R34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1021,25 +1033,25 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="39"/>
-      <c r="G5" s="37" t="s">
+      <c r="C5" s="35"/>
+      <c r="D5" s="36"/>
+      <c r="G5" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="39"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="36"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
@@ -1048,7 +1060,7 @@
       <c r="C6" s="1">
         <v>4.0199999999999996</v>
       </c>
-      <c r="D6" s="44"/>
+      <c r="D6" s="32"/>
       <c r="G6" s="7"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
@@ -1070,7 +1082,7 @@
         <f>'Financial Model'!J23</f>
         <v>58.801357000000003</v>
       </c>
-      <c r="D7" s="44" t="str">
+      <c r="D7" s="32" t="str">
         <f>$C$28</f>
         <v>Q322</v>
       </c>
@@ -1095,7 +1107,7 @@
         <f>C6*C7</f>
         <v>236.38145513999999</v>
       </c>
-      <c r="D8" s="44"/>
+      <c r="D8" s="32"/>
       <c r="G8" s="7"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -1117,7 +1129,7 @@
         <f>'Financial Model'!J65</f>
         <v>30.754999999999999</v>
       </c>
-      <c r="D9" s="44" t="str">
+      <c r="D9" s="32" t="str">
         <f t="shared" ref="D9:D11" si="0">$C$28</f>
         <v>Q322</v>
       </c>
@@ -1142,7 +1154,7 @@
         <f>'Financial Model'!J66</f>
         <v>14.744</v>
       </c>
-      <c r="D10" s="44" t="str">
+      <c r="D10" s="32" t="str">
         <f t="shared" si="0"/>
         <v>Q322</v>
       </c>
@@ -1167,7 +1179,7 @@
         <f>C9-C10</f>
         <v>16.010999999999999</v>
       </c>
-      <c r="D11" s="44" t="str">
+      <c r="D11" s="32" t="str">
         <f t="shared" si="0"/>
         <v>Q322</v>
       </c>
@@ -1192,7 +1204,7 @@
         <f>C8-C11</f>
         <v>220.37045513999999</v>
       </c>
-      <c r="D12" s="45"/>
+      <c r="D12" s="33"/>
       <c r="G12" s="7"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
@@ -1235,11 +1247,11 @@
       <c r="R14" s="9"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="39"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="36"/>
       <c r="G15" s="7"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
@@ -1254,16 +1266,16 @@
       <c r="R15" s="9"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="16" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="34"/>
+      <c r="D16" s="38"/>
       <c r="G16" s="7"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
@@ -1278,16 +1290,16 @@
       <c r="R16" s="9"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="34"/>
+      <c r="D17" s="38"/>
       <c r="G17" s="7"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
@@ -1302,16 +1314,16 @@
       <c r="R17" s="9"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="16" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="34"/>
+      <c r="D18" s="38"/>
       <c r="G18" s="7"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
@@ -1326,13 +1338,13 @@
       <c r="R18" s="9"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="42" t="s">
+      <c r="C19" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="43"/>
+      <c r="D19" s="40"/>
       <c r="G19" s="7"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -1375,11 +1387,11 @@
       <c r="R21" s="9"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="38"/>
-      <c r="D22" s="39"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="36"/>
       <c r="G22" s="7"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
@@ -1394,13 +1406,13 @@
       <c r="R22" s="9"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="33" t="s">
+      <c r="C23" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="34"/>
+      <c r="D23" s="38"/>
       <c r="G23" s="7"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -1415,13 +1427,13 @@
       <c r="R23" s="9"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="33">
+      <c r="C24" s="44">
         <v>2010</v>
       </c>
-      <c r="D24" s="34"/>
+      <c r="D24" s="38"/>
       <c r="G24" s="7"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
@@ -1436,13 +1448,13 @@
       <c r="R24" s="9"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="33">
+      <c r="C25" s="44">
         <v>2022</v>
       </c>
-      <c r="D25" s="34"/>
+      <c r="D25" s="38"/>
       <c r="G25" s="7"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -1457,9 +1469,11 @@
       <c r="R25" s="9"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B26" s="16"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="34"/>
+      <c r="B26" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="44"/>
+      <c r="D26" s="38"/>
       <c r="G26" s="7"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
@@ -1474,9 +1488,9 @@
       <c r="R26" s="9"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B27" s="16"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="34"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="38"/>
       <c r="G27" s="7"/>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
@@ -1491,13 +1505,13 @@
       <c r="R27" s="9"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="32">
+      <c r="D28" s="31">
         <v>42705</v>
       </c>
       <c r="G28" s="7"/>
@@ -1514,13 +1528,13 @@
       <c r="R28" s="9"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="36"/>
+      <c r="D29" s="48"/>
       <c r="G29" s="10"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -1535,24 +1549,28 @@
       <c r="R29" s="12"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B33" s="37" t="s">
+      <c r="B33" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="C33" s="38"/>
-      <c r="D33" s="39"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="36"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="C34" s="40">
+      <c r="C34" s="41">
         <f>C6/'Financial Model'!J63</f>
         <v>26.782399177430296</v>
       </c>
-      <c r="D34" s="41"/>
+      <c r="D34" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="B5:D5"/>
     <mergeCell ref="G5:R5"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="C16:D16"/>
@@ -1565,10 +1583,6 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="B5:D5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C29:D29" r:id="rId1" display="Link" xr:uid="{5D0A9762-A75A-8045-B126-8ECAA70A3451}"/>
@@ -1582,11 +1596,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B827E334-5CAC-4383-B3FB-74EC278BFB5B}">
   <dimension ref="A1:AC67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="P27" sqref="P27:T36"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1600,108 +1614,108 @@
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F1" s="23" t="s">
+    <row r="1" spans="1:29" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F1" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="Q1" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="R1" s="18" t="s">
+      <c r="R1" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="S1" s="18" t="s">
+      <c r="S1" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="T1" s="18" t="s">
+      <c r="T1" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="U1" s="18" t="s">
+      <c r="U1" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="V1" s="18" t="s">
+      <c r="V1" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="W1" s="18" t="s">
+      <c r="W1" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="X1" s="18" t="s">
+      <c r="X1" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="Y1" s="18" t="s">
+      <c r="Y1" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="Z1" s="18" t="s">
+      <c r="Z1" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="AA1" s="18" t="s">
+      <c r="AA1" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="AB1" s="18" t="s">
+      <c r="AB1" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="AC1" s="18" t="s">
+      <c r="AC1" s="17" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="28"/>
-      <c r="F2" s="30">
+    <row r="2" spans="1:29" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="27"/>
+      <c r="F2" s="29">
         <v>44469</v>
       </c>
-      <c r="J2" s="30">
+      <c r="J2" s="29">
         <v>44834</v>
       </c>
     </row>
-    <row r="3" spans="1:29" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="28"/>
-      <c r="J3" s="31">
+    <row r="3" spans="1:29" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="27"/>
+      <c r="J3" s="30">
         <v>42705</v>
       </c>
     </row>
-    <row r="4" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="19" t="s">
+    <row r="4" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="20">
         <v>31.806000000000001</v>
       </c>
-      <c r="J4" s="21">
+      <c r="J4" s="20">
         <v>38.451000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="19" t="s">
+    <row r="5" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="20">
         <v>4.2222</v>
       </c>
-      <c r="J5" s="21">
+      <c r="J5" s="20">
         <v>5.234</v>
       </c>
     </row>
@@ -1709,34 +1723,34 @@
       <c r="B6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="21">
         <f>F4+F5</f>
         <v>36.028199999999998</v>
       </c>
-      <c r="J6" s="22">
+      <c r="J6" s="21">
         <f>J4+J5</f>
         <v>43.685000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="19" t="s">
+    <row r="7" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="20">
         <v>5.2919999999999998</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J7" s="20">
         <v>6.5949999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="19" t="s">
+    <row r="8" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="20">
         <v>4.3339999999999996</v>
       </c>
-      <c r="J8" s="21">
+      <c r="J8" s="20">
         <v>6.9660000000000002</v>
       </c>
     </row>
@@ -1757,11 +1771,11 @@
       <c r="B10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="21">
         <f>F6-F9</f>
         <v>26.402200000000001</v>
       </c>
-      <c r="J10" s="22">
+      <c r="J10" s="21">
         <f>J6-J9</f>
         <v>30.124000000000002</v>
       </c>
@@ -1816,11 +1830,11 @@
       <c r="B15" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15" s="21">
         <f>F10-F14</f>
         <v>-25.9758</v>
       </c>
-      <c r="J15" s="22">
+      <c r="J15" s="21">
         <f>J10-J14</f>
         <v>-48.390999999999998</v>
       </c>
@@ -1886,24 +1900,24 @@
       <c r="B21" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F21" s="22">
+      <c r="F21" s="21">
         <f>F19-F20</f>
         <v>-25.441799999999997</v>
       </c>
-      <c r="J21" s="22">
+      <c r="J21" s="21">
         <f>J19-J20</f>
         <v>-48.651000000000003</v>
       </c>
     </row>
-    <row r="22" spans="2:10" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="24" t="s">
+    <row r="22" spans="2:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="F22" s="24">
+      <c r="F22" s="23">
         <f>F21/F23</f>
         <v>-0.50517972135233469</v>
       </c>
-      <c r="J22" s="24">
+      <c r="J22" s="23">
         <f>J21/J23</f>
         <v>-0.82737886474286637</v>
       </c>
@@ -1923,8 +1937,8 @@
       <c r="B25" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F25" s="22"/>
-      <c r="J25" s="25">
+      <c r="F25" s="21"/>
+      <c r="J25" s="24">
         <f>J6/F6-1</f>
         <v>0.21252241299870667</v>
       </c>
@@ -1934,60 +1948,60 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="2:10" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="26" t="s">
+    <row r="28" spans="2:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="F28" s="26">
+      <c r="F28" s="25">
         <f>F10/F6</f>
         <v>0.73282040179637065</v>
       </c>
-      <c r="J28" s="26">
+      <c r="J28" s="25">
         <f>J10/J6</f>
         <v>0.68957308000457829</v>
       </c>
     </row>
-    <row r="29" spans="2:10" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="26" t="s">
+    <row r="29" spans="2:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="F29" s="26">
+      <c r="F29" s="25">
         <f>F15/F6</f>
         <v>-0.72098522823788036</v>
       </c>
-      <c r="J29" s="26">
+      <c r="J29" s="25">
         <f>J15/J6</f>
         <v>-1.1077257639922169</v>
       </c>
     </row>
-    <row r="30" spans="2:10" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="26" t="s">
+    <row r="30" spans="2:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="F30" s="26">
+      <c r="F30" s="25">
         <f>F21/F6</f>
         <v>-0.70616350525421745</v>
       </c>
-      <c r="J30" s="26">
+      <c r="J30" s="25">
         <f>J21/J6</f>
         <v>-1.1136774636602953</v>
       </c>
     </row>
-    <row r="31" spans="2:10" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="26" t="s">
+    <row r="31" spans="2:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="F31" s="26">
+      <c r="F31" s="25">
         <f>F20/F19</f>
         <v>-3.3125902089297973E-3</v>
       </c>
-      <c r="J31" s="26">
+      <c r="J31" s="25">
         <f>J20/J19</f>
         <v>-1.6676961087090797E-3</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B35" s="27" t="s">
+      <c r="B35" s="26" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1995,10 +2009,10 @@
       <c r="B36" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F36" s="22">
+      <c r="F36" s="21">
         <v>6.907</v>
       </c>
-      <c r="J36" s="22">
+      <c r="J36" s="21">
         <v>4.7560000000000002</v>
       </c>
     </row>
@@ -2006,10 +2020,10 @@
       <c r="B37" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F37" s="22">
+      <c r="F37" s="21">
         <v>0</v>
       </c>
-      <c r="J37" s="22">
+      <c r="J37" s="21">
         <v>25.998999999999999</v>
       </c>
     </row>
@@ -2175,13 +2189,13 @@
       <c r="B50" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F50" s="22">
+      <c r="F50" s="21">
         <v>11.723000000000001</v>
       </c>
-      <c r="G50" s="22"/>
-      <c r="H50" s="22"/>
-      <c r="I50" s="22"/>
-      <c r="J50" s="22">
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="21">
         <v>0.122</v>
       </c>
     </row>
@@ -2219,13 +2233,13 @@
       <c r="B53" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F53" s="22">
+      <c r="F53" s="21">
         <v>17.513000000000002</v>
       </c>
-      <c r="G53" s="22"/>
-      <c r="H53" s="22"/>
-      <c r="I53" s="22"/>
-      <c r="J53" s="22">
+      <c r="G53" s="21"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="21">
         <v>14.622</v>
       </c>
     </row>

--- a/$MRDB.xlsx
+++ b/$MRDB.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11128263-3D91-434F-B126-00827CDABC58}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C14B58D-DF55-4239-BB33-CFDC3A428ECE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" xr2:uid="{DC0BB421-27B4-4714-8953-7404B140A86A}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="104">
   <si>
     <t>$MRDB</t>
   </si>
@@ -335,6 +335,9 @@
   </si>
   <si>
     <t>Emply.</t>
+  </si>
+  <si>
+    <t>Deferred Taxes</t>
   </si>
 </sst>
 </file>
@@ -529,7 +532,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -592,6 +595,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -601,41 +619,29 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1014,7 +1020,7 @@
   <dimension ref="A2:R34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1033,32 +1039,32 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="36"/>
-      <c r="G5" s="34" t="s">
+      <c r="C5" s="40"/>
+      <c r="D5" s="41"/>
+      <c r="G5" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="35"/>
-      <c r="Q5" s="35"/>
-      <c r="R5" s="36"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="41"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>4.0199999999999996</v>
+        <v>1.4</v>
       </c>
       <c r="D6" s="32"/>
       <c r="G6" s="7"/>
@@ -1079,12 +1085,10 @@
         <v>4</v>
       </c>
       <c r="C7" s="5">
-        <f>'Financial Model'!J23</f>
-        <v>58.801357000000003</v>
-      </c>
-      <c r="D7" s="32" t="str">
-        <f>$C$28</f>
-        <v>Q322</v>
+        <v>66.483192000000003</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>36</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="8"/>
@@ -1105,7 +1109,7 @@
       </c>
       <c r="C8" s="5">
         <f>C6*C7</f>
-        <v>236.38145513999999</v>
+        <v>93.076468800000001</v>
       </c>
       <c r="D8" s="32"/>
       <c r="G8" s="7"/>
@@ -1126,12 +1130,11 @@
         <v>6</v>
       </c>
       <c r="C9" s="5">
-        <f>'Financial Model'!J65</f>
-        <v>30.754999999999999</v>
-      </c>
-      <c r="D9" s="32" t="str">
-        <f t="shared" ref="D9:D11" si="0">$C$28</f>
-        <v>Q322</v>
+        <f>'Financial Model'!K66</f>
+        <v>27.875</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>36</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="8"/>
@@ -1151,12 +1154,11 @@
         <v>7</v>
       </c>
       <c r="C10" s="5">
-        <f>'Financial Model'!J66</f>
-        <v>14.744</v>
-      </c>
-      <c r="D10" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v>Q322</v>
+        <f>'Financial Model'!K67</f>
+        <v>16.053000000000001</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>36</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="8"/>
@@ -1177,11 +1179,10 @@
       </c>
       <c r="C11" s="5">
         <f>C9-C10</f>
-        <v>16.010999999999999</v>
-      </c>
-      <c r="D11" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v>Q322</v>
+        <v>11.821999999999999</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>36</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="8"/>
@@ -1202,7 +1203,7 @@
       </c>
       <c r="C12" s="6">
         <f>C8-C11</f>
-        <v>220.37045513999999</v>
+        <v>81.254468799999998</v>
       </c>
       <c r="D12" s="33"/>
       <c r="G12" s="7"/>
@@ -1247,11 +1248,11 @@
       <c r="R14" s="9"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="36"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="41"/>
       <c r="G15" s="7"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
@@ -1272,10 +1273,10 @@
       <c r="B16" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="38"/>
+      <c r="D16" s="45"/>
       <c r="G16" s="7"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
@@ -1296,10 +1297,10 @@
       <c r="B17" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="38"/>
+      <c r="D17" s="45"/>
       <c r="G17" s="7"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
@@ -1320,10 +1321,10 @@
       <c r="B18" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="38"/>
+      <c r="D18" s="45"/>
       <c r="G18" s="7"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
@@ -1341,10 +1342,10 @@
       <c r="B19" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="39" t="s">
+      <c r="C19" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="40"/>
+      <c r="D19" s="48"/>
       <c r="G19" s="7"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -1387,11 +1388,11 @@
       <c r="R21" s="9"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="35"/>
-      <c r="D22" s="36"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="41"/>
       <c r="G22" s="7"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
@@ -1406,13 +1407,13 @@
       <c r="R22" s="9"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="44" t="s">
+      <c r="C23" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="38"/>
+      <c r="D23" s="45"/>
       <c r="G23" s="7"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -1427,13 +1428,13 @@
       <c r="R23" s="9"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B24" s="43" t="s">
+      <c r="B24" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="44">
+      <c r="C24" s="46">
         <v>2010</v>
       </c>
-      <c r="D24" s="38"/>
+      <c r="D24" s="45"/>
       <c r="G24" s="7"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
@@ -1448,13 +1449,13 @@
       <c r="R24" s="9"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B25" s="43" t="s">
+      <c r="B25" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="44">
+      <c r="C25" s="46">
         <v>2022</v>
       </c>
-      <c r="D25" s="38"/>
+      <c r="D25" s="45"/>
       <c r="G25" s="7"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -1469,11 +1470,11 @@
       <c r="R25" s="9"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B26" s="43" t="s">
+      <c r="B26" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="44"/>
-      <c r="D26" s="38"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="45"/>
       <c r="G26" s="7"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
@@ -1488,9 +1489,9 @@
       <c r="R26" s="9"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B27" s="43"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="38"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="45"/>
       <c r="G27" s="7"/>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
@@ -1505,14 +1506,15 @@
       <c r="R27" s="9"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B28" s="43" t="s">
+      <c r="B28" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="45" t="s">
-        <v>35</v>
+      <c r="C28" s="35" t="s">
+        <v>36</v>
       </c>
       <c r="D28" s="31">
-        <v>42705</v>
+        <f>'Financial Model'!K3</f>
+        <v>41306</v>
       </c>
       <c r="G28" s="7"/>
       <c r="H28" s="8"/>
@@ -1528,13 +1530,13 @@
       <c r="R28" s="9"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B29" s="46" t="s">
+      <c r="B29" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="47" t="s">
+      <c r="C29" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="48"/>
+      <c r="D29" s="38"/>
       <c r="G29" s="10"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -1549,21 +1551,21 @@
       <c r="R29" s="12"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B33" s="34" t="s">
+      <c r="B33" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="C33" s="35"/>
-      <c r="D33" s="36"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="41"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="C34" s="41">
-        <f>C6/'Financial Model'!J63</f>
-        <v>26.782399177430296</v>
-      </c>
-      <c r="D34" s="42"/>
+      <c r="C34" s="42">
+        <f>C6/'Financial Model'!K64</f>
+        <v>-3.0918082009604722</v>
+      </c>
+      <c r="D34" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -1594,13 +1596,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B827E334-5CAC-4383-B3FB-74EC278BFB5B}">
-  <dimension ref="A1:AC67"/>
+  <dimension ref="A1:AC68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomRight" activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1610,8 +1612,8 @@
     <col min="3" max="5" width="9.140625" style="1"/>
     <col min="6" max="6" width="9.140625" style="5"/>
     <col min="7" max="9" width="9.140625" style="1"/>
-    <col min="10" max="10" width="9.140625" style="5"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="11" width="9.140625" style="5"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" s="17" customFormat="1" x14ac:dyDescent="0.2">
@@ -1630,7 +1632,7 @@
       <c r="J1" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="19" t="s">
         <v>36</v>
       </c>
       <c r="L1" s="17" t="s">
@@ -1687,8 +1689,14 @@
       <c r="F2" s="29">
         <v>44469</v>
       </c>
+      <c r="G2" s="29">
+        <v>44561</v>
+      </c>
       <c r="J2" s="29">
         <v>44834</v>
+      </c>
+      <c r="K2" s="49">
+        <v>44926</v>
       </c>
     </row>
     <row r="3" spans="1:29" s="28" customFormat="1" x14ac:dyDescent="0.2">
@@ -1696,6 +1704,9 @@
       <c r="J3" s="30">
         <v>42705</v>
       </c>
+      <c r="K3" s="49">
+        <v>41306</v>
+      </c>
     </row>
     <row r="4" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="18" t="s">
@@ -1704,8 +1715,14 @@
       <c r="F4" s="20">
         <v>31.806000000000001</v>
       </c>
+      <c r="G4" s="20">
+        <v>9.5090000000000003</v>
+      </c>
       <c r="J4" s="20">
         <v>38.451000000000001</v>
+      </c>
+      <c r="K4" s="20">
+        <v>11.276999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.2">
@@ -1715,8 +1732,14 @@
       <c r="F5" s="20">
         <v>4.2222</v>
       </c>
+      <c r="G5" s="20">
+        <v>1.1910000000000001</v>
+      </c>
       <c r="J5" s="20">
         <v>5.234</v>
+      </c>
+      <c r="K5" s="20">
+        <v>1.528</v>
       </c>
     </row>
     <row r="6" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1727,10 +1750,18 @@
         <f>F4+F5</f>
         <v>36.028199999999998</v>
       </c>
+      <c r="G6" s="21">
+        <f>G4+G5</f>
+        <v>10.700000000000001</v>
+      </c>
       <c r="J6" s="21">
         <f>J4+J5</f>
         <v>43.685000000000002</v>
       </c>
+      <c r="K6" s="21">
+        <f>K4+K5</f>
+        <v>12.805</v>
+      </c>
     </row>
     <row r="7" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="18" t="s">
@@ -1739,8 +1770,14 @@
       <c r="F7" s="20">
         <v>5.2919999999999998</v>
       </c>
+      <c r="G7" s="20">
+        <v>1.573</v>
+      </c>
       <c r="J7" s="20">
         <v>6.5949999999999998</v>
+      </c>
+      <c r="K7" s="20">
+        <v>1.59</v>
       </c>
     </row>
     <row r="8" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.2">
@@ -1750,8 +1787,14 @@
       <c r="F8" s="20">
         <v>4.3339999999999996</v>
       </c>
+      <c r="G8" s="20">
+        <v>1.3360000000000001</v>
+      </c>
       <c r="J8" s="20">
         <v>6.9660000000000002</v>
+      </c>
+      <c r="K8" s="20">
+        <v>1.7749999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.2">
@@ -1762,10 +1805,18 @@
         <f>F7+F8</f>
         <v>9.6259999999999994</v>
       </c>
+      <c r="G9" s="5">
+        <f>G7+G8</f>
+        <v>2.9089999999999998</v>
+      </c>
       <c r="J9" s="5">
         <f>J7+J8</f>
         <v>13.561</v>
       </c>
+      <c r="K9" s="5">
+        <f>K7+K8</f>
+        <v>3.3650000000000002</v>
+      </c>
     </row>
     <row r="10" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
@@ -1775,10 +1826,18 @@
         <f>F6-F9</f>
         <v>26.402200000000001</v>
       </c>
+      <c r="G10" s="21">
+        <f>G6-G9</f>
+        <v>7.7910000000000013</v>
+      </c>
       <c r="J10" s="21">
         <f>J6-J9</f>
         <v>30.124000000000002</v>
       </c>
+      <c r="K10" s="21">
+        <f>K6-K9</f>
+        <v>9.44</v>
+      </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
@@ -1787,8 +1846,14 @@
       <c r="F11" s="5">
         <v>24.827999999999999</v>
       </c>
+      <c r="G11" s="5">
+        <v>8.4700000000000006</v>
+      </c>
       <c r="J11" s="5">
         <v>35.415999999999997</v>
+      </c>
+      <c r="K11" s="5">
+        <v>9.4730000000000008</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.2">
@@ -1798,8 +1863,14 @@
       <c r="F12" s="5">
         <v>19.065000000000001</v>
       </c>
+      <c r="G12" s="5">
+        <v>6.5750000000000002</v>
+      </c>
       <c r="J12" s="5">
         <v>27.937999999999999</v>
+      </c>
+      <c r="K12" s="5">
+        <v>7.2320000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.2">
@@ -1809,8 +1880,14 @@
       <c r="F13" s="5">
         <v>8.4849999999999994</v>
       </c>
+      <c r="G13" s="5">
+        <v>4.0330000000000004</v>
+      </c>
       <c r="J13" s="5">
         <v>15.161</v>
+      </c>
+      <c r="K13" s="5">
+        <v>5.5030000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.2">
@@ -1821,10 +1898,18 @@
         <f>SUM(F11:F13)</f>
         <v>52.378</v>
       </c>
+      <c r="G14" s="5">
+        <f t="shared" ref="G14" si="0">SUM(G11:G13)</f>
+        <v>19.078000000000003</v>
+      </c>
       <c r="J14" s="5">
         <f>SUM(J11:J13)</f>
         <v>78.515000000000001</v>
       </c>
+      <c r="K14" s="5">
+        <f t="shared" ref="K14" si="1">SUM(K11:K13)</f>
+        <v>22.208000000000002</v>
+      </c>
     </row>
     <row r="15" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
@@ -1834,10 +1919,18 @@
         <f>F10-F14</f>
         <v>-25.9758</v>
       </c>
+      <c r="G15" s="21">
+        <f t="shared" ref="G15" si="2">G10-G14</f>
+        <v>-11.287000000000003</v>
+      </c>
       <c r="J15" s="21">
         <f>J10-J14</f>
         <v>-48.390999999999998</v>
       </c>
+      <c r="K15" s="21">
+        <f t="shared" ref="K15" si="3">K10-K14</f>
+        <v>-12.768000000000002</v>
+      </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
@@ -1846,33 +1939,51 @@
       <c r="F16" s="5">
         <v>2.7730000000000001</v>
       </c>
+      <c r="G16" s="5">
+        <v>0.72099999999999997</v>
+      </c>
       <c r="J16" s="5">
         <v>1.6080000000000001</v>
       </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K16" s="5">
+        <v>0.23200000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>50</v>
       </c>
       <c r="F17" s="5">
         <v>3.6259999999999999</v>
       </c>
+      <c r="G17" s="5">
+        <v>-0.12</v>
+      </c>
       <c r="J17" s="5">
         <v>-5.7119999999999997</v>
       </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K17" s="5">
+        <v>1.7310000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F18" s="5">
         <v>-0.23499999999999999</v>
       </c>
+      <c r="G18" s="5">
+        <v>-3.9E-2</v>
+      </c>
       <c r="J18" s="5">
         <v>7.141</v>
       </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K18" s="5">
+        <v>-1.829</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>51</v>
       </c>
@@ -1880,23 +1991,37 @@
         <f>F15-F16+F17+F18</f>
         <v>-25.357799999999997</v>
       </c>
+      <c r="G19" s="5">
+        <f>G15-G16+G17+G18</f>
+        <v>-12.167000000000002</v>
+      </c>
       <c r="J19" s="5">
         <f>J15-J16+J17+J18</f>
         <v>-48.57</v>
       </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K19" s="5">
+        <f>K15-K16+K17+K18</f>
+        <v>-13.098000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>52</v>
       </c>
       <c r="F20" s="5">
         <v>8.4000000000000005E-2</v>
       </c>
+      <c r="G20" s="5">
+        <v>-1.4999999999999999E-2</v>
+      </c>
       <c r="J20" s="5">
         <v>8.1000000000000003E-2</v>
       </c>
-    </row>
-    <row r="21" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K20" s="5">
+        <v>-5.6000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>53</v>
       </c>
@@ -1904,12 +2029,20 @@
         <f>F19-F20</f>
         <v>-25.441799999999997</v>
       </c>
+      <c r="G21" s="21">
+        <f>G19-G20</f>
+        <v>-12.152000000000001</v>
+      </c>
       <c r="J21" s="21">
         <f>J19-J20</f>
         <v>-48.651000000000003</v>
       </c>
-    </row>
-    <row r="22" spans="2:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K21" s="21">
+        <f>K19-K20</f>
+        <v>-13.042000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="23" t="s">
         <v>54</v>
       </c>
@@ -1917,23 +2050,37 @@
         <f>F21/F23</f>
         <v>-0.50517972135233469</v>
       </c>
+      <c r="G22" s="23">
+        <f>G21/G23</f>
+        <v>-1.0065874655507616</v>
+      </c>
       <c r="J22" s="23">
         <f>J21/J23</f>
         <v>-0.82737886474286637</v>
       </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B23" s="1" t="s">
+      <c r="K22" s="23">
+        <f>K21/K23</f>
+        <v>-0.54539536103650721</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F23" s="5">
         <v>50.361879000000002</v>
       </c>
+      <c r="G23" s="5">
+        <v>12.072473</v>
+      </c>
       <c r="J23" s="5">
         <v>58.801357000000003</v>
       </c>
-    </row>
-    <row r="25" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K23" s="5">
+        <v>23.912928000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>55</v>
       </c>
@@ -1942,13 +2089,25 @@
         <f>J6/F6-1</f>
         <v>0.21252241299870667</v>
       </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B26" s="1" t="s">
+      <c r="K25" s="24">
+        <f>K6/G6-1</f>
+        <v>0.19672897196261663</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="25" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="28" spans="2:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G26" s="25">
+        <f>G6/F6-1</f>
+        <v>-0.7030104196157454</v>
+      </c>
+      <c r="K26" s="25">
+        <f>K6/J6-1</f>
+        <v>-0.70687879134714438</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="25" t="s">
         <v>57</v>
       </c>
@@ -1956,12 +2115,20 @@
         <f>F10/F6</f>
         <v>0.73282040179637065</v>
       </c>
+      <c r="G28" s="25">
+        <f t="shared" ref="G28" si="4">G10/G6</f>
+        <v>0.7281308411214954</v>
+      </c>
       <c r="J28" s="25">
         <f>J10/J6</f>
         <v>0.68957308000457829</v>
       </c>
-    </row>
-    <row r="29" spans="2:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K28" s="25">
+        <f t="shared" ref="K28" si="5">K10/K6</f>
+        <v>0.73721202655212803</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="25" t="s">
         <v>58</v>
       </c>
@@ -1969,12 +2136,20 @@
         <f>F15/F6</f>
         <v>-0.72098522823788036</v>
       </c>
+      <c r="G29" s="25">
+        <f t="shared" ref="G29" si="6">G15/G6</f>
+        <v>-1.0548598130841123</v>
+      </c>
       <c r="J29" s="25">
         <f>J15/J6</f>
         <v>-1.1077257639922169</v>
       </c>
-    </row>
-    <row r="30" spans="2:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K29" s="25">
+        <f t="shared" ref="K29" si="7">K15/K6</f>
+        <v>-0.99711050370948873</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="25" t="s">
         <v>59</v>
       </c>
@@ -1982,12 +2157,20 @@
         <f>F21/F6</f>
         <v>-0.70616350525421745</v>
       </c>
+      <c r="G30" s="25">
+        <f t="shared" ref="G30" si="8">G21/G6</f>
+        <v>-1.1357009345794393</v>
+      </c>
       <c r="J30" s="25">
         <f>J21/J6</f>
         <v>-1.1136774636602953</v>
       </c>
-    </row>
-    <row r="31" spans="2:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K30" s="25">
+        <f t="shared" ref="K30" si="9">K21/K6</f>
+        <v>-1.0185083951581417</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="25" t="s">
         <v>60</v>
       </c>
@@ -1995,17 +2178,25 @@
         <f>F20/F19</f>
         <v>-3.3125902089297973E-3</v>
       </c>
+      <c r="G31" s="25">
+        <f t="shared" ref="G31" si="10">G20/G19</f>
+        <v>1.2328429358099775E-3</v>
+      </c>
       <c r="J31" s="25">
         <f>J20/J19</f>
         <v>-1.6676961087090797E-3</v>
       </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K31" s="25">
+        <f t="shared" ref="K31" si="11">K20/K19</f>
+        <v>4.2754619025805463E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B35" s="26" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
         <v>6</v>
       </c>
@@ -2015,8 +2206,11 @@
       <c r="J36" s="21">
         <v>4.7560000000000002</v>
       </c>
-    </row>
-    <row r="37" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K36" s="21">
+        <v>27.875</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
         <v>62</v>
       </c>
@@ -2026,8 +2220,11 @@
       <c r="J37" s="21">
         <v>25.998999999999999</v>
       </c>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K37" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
         <v>63</v>
       </c>
@@ -2037,8 +2234,11 @@
       <c r="J38" s="5">
         <v>12.154</v>
       </c>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K38" s="5">
+        <v>25.045000000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>64</v>
       </c>
@@ -2048,8 +2248,11 @@
       <c r="J39" s="5">
         <v>15.805999999999999</v>
       </c>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K39" s="5">
+        <v>5.9059999999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
         <v>65</v>
       </c>
@@ -2061,11 +2264,15 @@
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5">
-        <f t="shared" ref="J40" si="0">SUM(J36:J39)</f>
+        <f t="shared" ref="J40:K40" si="12">SUM(J36:J39)</f>
         <v>58.714999999999996</v>
       </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K40" s="5">
+        <f t="shared" si="12"/>
+        <v>58.826000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
         <v>66</v>
       </c>
@@ -2078,8 +2285,11 @@
       <c r="J41" s="5">
         <v>0.70799999999999996</v>
       </c>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K41" s="5">
+        <v>0.52200000000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
         <v>67</v>
       </c>
@@ -2093,8 +2303,12 @@
         <f>7.535+1.12</f>
         <v>8.6550000000000011</v>
       </c>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K42" s="5">
+        <f>7.816+1.056</f>
+        <v>8.8719999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
         <v>68</v>
       </c>
@@ -2107,8 +2321,11 @@
       <c r="J43" s="5">
         <v>0.89</v>
       </c>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K43" s="5">
+        <v>0.77700000000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
         <v>69</v>
       </c>
@@ -2121,8 +2338,11 @@
       <c r="J44" s="5">
         <v>1.006</v>
       </c>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K44" s="5">
+        <v>1.738</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
         <v>70</v>
       </c>
@@ -2134,16 +2354,20 @@
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
       <c r="J45" s="5">
-        <f t="shared" ref="J45" si="1">J40+SUM(J41:J44)</f>
+        <f t="shared" ref="J45:K45" si="13">J40+SUM(J41:J44)</f>
         <v>69.974000000000004</v>
       </c>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K45" s="5">
+        <f t="shared" si="13"/>
+        <v>70.734999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
         <v>71</v>
       </c>
@@ -2156,8 +2380,11 @@
       <c r="J47" s="5">
         <v>3.2669999999999999</v>
       </c>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K47" s="5">
+        <v>6.3810000000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
         <v>72</v>
       </c>
@@ -2170,8 +2397,11 @@
       <c r="J48" s="5">
         <v>8.9019999999999992</v>
       </c>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K48" s="5">
+        <v>6.2240000000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
         <v>73</v>
       </c>
@@ -2184,8 +2414,11 @@
       <c r="J49" s="5">
         <v>0.496</v>
       </c>
-    </row>
-    <row r="50" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K49" s="5">
+        <v>0.50900000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
         <v>74</v>
       </c>
@@ -2198,8 +2431,11 @@
       <c r="J50" s="21">
         <v>0.122</v>
       </c>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K50" s="21">
+        <v>16.053000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
         <v>75</v>
       </c>
@@ -2212,8 +2448,11 @@
       <c r="J51" s="5">
         <v>26.236000000000001</v>
       </c>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K51" s="5">
+        <v>29.106000000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
         <v>76</v>
       </c>
@@ -2225,11 +2464,15 @@
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
       <c r="J52" s="5">
-        <f t="shared" ref="J52" si="2">SUM(J47:J51)</f>
+        <f t="shared" ref="J52:K52" si="14">SUM(J47:J51)</f>
         <v>39.022999999999996</v>
       </c>
-    </row>
-    <row r="53" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K52" s="5">
+        <f t="shared" si="14"/>
+        <v>58.273000000000003</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="2" t="s">
         <v>77</v>
       </c>
@@ -2242,8 +2485,11 @@
       <c r="J53" s="21">
         <v>14.622</v>
       </c>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K53" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
         <v>73</v>
       </c>
@@ -2256,8 +2502,11 @@
       <c r="J54" s="5">
         <v>0.433</v>
       </c>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K54" s="5">
+        <v>0.30299999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
         <v>75</v>
       </c>
@@ -2270,8 +2519,11 @@
       <c r="J55" s="5">
         <v>5.3209999999999997</v>
       </c>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K55" s="5">
+        <v>16.577999999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
         <v>78</v>
       </c>
@@ -2284,119 +2536,181 @@
       <c r="J56" s="5">
         <v>1.7490000000000001</v>
       </c>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K56" s="5">
+        <v>6.2350000000000003</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="F57" s="5">
-        <f>F52+SUM(F53:F56)</f>
-        <v>78.153000000000006</v>
+        <v>0</v>
       </c>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
       <c r="J57" s="5">
-        <f t="shared" ref="J57" si="3">J52+SUM(J53:J56)</f>
+        <v>0</v>
+      </c>
+      <c r="K57" s="5">
+        <v>0.17399999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B58" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F58" s="5">
+        <f>F52+SUM(F53:F57)</f>
+        <v>78.153000000000006</v>
+      </c>
+      <c r="G58" s="5">
+        <f t="shared" ref="G58:K58" si="15">G52+SUM(G53:G57)</f>
+        <v>0</v>
+      </c>
+      <c r="H58" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I58" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J58" s="5">
+        <f t="shared" si="15"/>
         <v>61.147999999999996</v>
       </c>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B59" s="1" t="s">
+      <c r="K58" s="5">
+        <f t="shared" si="15"/>
+        <v>81.563000000000002</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B60" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F59" s="5">
-        <f>F45-F57</f>
+      <c r="F60" s="5">
+        <f>F45-F58</f>
         <v>-48.125000000000007</v>
       </c>
-      <c r="J59" s="5">
-        <f>J45-J57</f>
+      <c r="J60" s="5">
+        <f>J45-J58</f>
         <v>8.8260000000000076</v>
       </c>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B60" s="1" t="s">
+      <c r="K60" s="5">
+        <v>-10.827999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B61" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F60" s="5">
-        <f>F59+F57</f>
+      <c r="F61" s="5">
+        <f>F60+F58</f>
         <v>30.027999999999999</v>
       </c>
-      <c r="J60" s="5">
-        <f>J59+J57</f>
+      <c r="J61" s="5">
+        <f>J60+J58</f>
         <v>69.974000000000004</v>
       </c>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B62" s="1" t="s">
+      <c r="K61" s="5">
+        <f>K60+K58</f>
+        <v>70.734999999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B63" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F62" s="5">
-        <f>F45-F57</f>
+      <c r="F63" s="5">
+        <f>F45-F58</f>
         <v>-48.125000000000007</v>
       </c>
-      <c r="J62" s="5">
-        <f>J45-J57</f>
+      <c r="J63" s="5">
+        <f>J45-J58</f>
         <v>8.8260000000000076</v>
       </c>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B63" s="1" t="s">
+      <c r="K63" s="5">
+        <f t="shared" ref="K63" si="16">K45-K58</f>
+        <v>-10.828000000000003</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B64" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F63" s="5">
-        <f>F62/F23</f>
+      <c r="F64" s="5">
+        <f>F63/F23</f>
         <v>-0.95558388518426818</v>
       </c>
-      <c r="J63" s="5">
-        <f>J62/J23</f>
+      <c r="J64" s="5">
+        <f>J63/J23</f>
         <v>0.15009857680665442</v>
       </c>
-    </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B65" s="1" t="s">
+      <c r="K64" s="5">
+        <f t="shared" ref="K64" si="17">K63/K23</f>
+        <v>-0.45280945938531669</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B66" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F65" s="5">
+      <c r="F66" s="5">
         <f>F36+F37</f>
         <v>6.907</v>
       </c>
-      <c r="J65" s="5">
+      <c r="J66" s="5">
         <f>J36+J37</f>
         <v>30.754999999999999</v>
       </c>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B66" s="1" t="s">
+      <c r="K66" s="5">
+        <f t="shared" ref="K66" si="18">K36+K37</f>
+        <v>27.875</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B67" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F66" s="5">
+      <c r="F67" s="5">
         <f>F50+F53</f>
         <v>29.236000000000004</v>
       </c>
-      <c r="J66" s="5">
+      <c r="J67" s="5">
         <f>J50+J53</f>
         <v>14.744</v>
       </c>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B67" s="1" t="s">
+      <c r="K67" s="5">
+        <f t="shared" ref="K67" si="19">K50+K53</f>
+        <v>16.053000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B68" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F67" s="5">
-        <f>F65-F66</f>
+      <c r="F68" s="5">
+        <f>F66-F67</f>
         <v>-22.329000000000004</v>
       </c>
-      <c r="J67" s="5">
-        <f>J65-J66</f>
+      <c r="J68" s="5">
+        <f>J66-J67</f>
         <v>16.010999999999999</v>
+      </c>
+      <c r="K68" s="5">
+        <f t="shared" ref="K68" si="20">K66-K67</f>
+        <v>11.821999999999999</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="J1" r:id="rId1" xr:uid="{37C18218-3CB9-DD41-87D5-CBAC90EBF07E}"/>
+    <hyperlink ref="K1" r:id="rId2" xr:uid="{5055E54A-E927-49DE-8896-E22AD3DB3AD6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="125" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId3"/>
 </worksheet>
 </file>